--- a/data/trans_orig/P13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>547730</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>524692</v>
+        <v>525247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>568724</v>
+        <v>570121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7892228612089551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7560271115663546</v>
+        <v>0.7568265585887722</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8194735167899014</v>
+        <v>0.821485261230839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>484</v>
@@ -765,19 +765,19 @@
         <v>478699</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>454931</v>
+        <v>454442</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>502584</v>
+        <v>500352</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6954291422391317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6608998589452161</v>
+        <v>0.6601896971586183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7301268620005475</v>
+        <v>0.7268847360298574</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1019</v>
@@ -786,19 +786,19 @@
         <v>1026429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>993218</v>
+        <v>994366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1057575</v>
+        <v>1057820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.742518055212997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7184928350330606</v>
+        <v>0.7193236227123081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7650488373058298</v>
+        <v>0.7652257398743566</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>82317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66635</v>
+        <v>66151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99650</v>
+        <v>99765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1186098807154945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0960142018893263</v>
+        <v>0.09531672677200434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1435847906325607</v>
+        <v>0.1437516400228706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -836,19 +836,19 @@
         <v>126858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105684</v>
+        <v>108885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146532</v>
+        <v>152102</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1842931266772982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1535320801559103</v>
+        <v>0.1581823385011799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2128739813434795</v>
+        <v>0.2209651676644301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>212</v>
@@ -857,19 +857,19 @@
         <v>209175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185502</v>
+        <v>185828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>235363</v>
+        <v>237350</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1513170096525381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1341920446459448</v>
+        <v>0.13442790208671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1702610800709394</v>
+        <v>0.1716990946851844</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>51395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39248</v>
+        <v>38255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65878</v>
+        <v>66721</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0740546606968033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05655294452323269</v>
+        <v>0.05512166856036731</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09492289277080558</v>
+        <v>0.09613857942024152</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -907,19 +907,19 @@
         <v>69117</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54309</v>
+        <v>54652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>86401</v>
+        <v>84668</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1004100023562889</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07889669746453332</v>
+        <v>0.07939549570962703</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.125518218325865</v>
+        <v>0.1230017545803243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -928,19 +928,19 @@
         <v>120512</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>101734</v>
+        <v>101823</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>143051</v>
+        <v>142854</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08717836591590754</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07359397104262083</v>
+        <v>0.07365880839021359</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1034829356210496</v>
+        <v>0.1033403821209171</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>7800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3837</v>
+        <v>3776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15433</v>
+        <v>14785</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01123831886631127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005528990193860466</v>
+        <v>0.005441354278013455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02223707605531084</v>
+        <v>0.02130433867464828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -978,19 +978,19 @@
         <v>10333</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5160</v>
+        <v>5104</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18510</v>
+        <v>18611</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01501071162097051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007495870370144968</v>
+        <v>0.007414553583312463</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02689103676235438</v>
+        <v>0.02703659534964262</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -999,19 +999,19 @@
         <v>18132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11075</v>
+        <v>10890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28243</v>
+        <v>28366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01311679083311327</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008011484607862163</v>
+        <v>0.007877594914626572</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02043069757501515</v>
+        <v>0.02052003820869453</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>4771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1825</v>
+        <v>1725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10474</v>
+        <v>9794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006874278512435768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002628933851089169</v>
+        <v>0.002485163937614961</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01509209638107471</v>
+        <v>0.01411246412366151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1049,19 +1049,19 @@
         <v>3343</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8775</v>
+        <v>9211</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004857017106310829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0</v>
+        <v>0.001453433289361135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01274726950175319</v>
+        <v>0.01338170722086043</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1070,19 +1070,19 @@
         <v>8114</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3774</v>
+        <v>3374</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15596</v>
+        <v>16144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0058697783854442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002729955530650081</v>
+        <v>0.002440592200201396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01128230962640025</v>
+        <v>0.01167850018752984</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>768163</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>743445</v>
+        <v>742291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>792506</v>
+        <v>793521</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7986718844953994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.772972340936331</v>
+        <v>0.7717731950343457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8239821952297335</v>
+        <v>0.8250371949952927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>634</v>
@@ -1195,19 +1195,19 @@
         <v>672901</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>643536</v>
+        <v>642891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>703039</v>
+        <v>702849</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6948637740849731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6645401725395192</v>
+        <v>0.6638742468866696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7259849216975118</v>
+        <v>0.7257890909580734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1345</v>
@@ -1216,19 +1216,19 @@
         <v>1441064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1399081</v>
+        <v>1398713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1480555</v>
+        <v>1477743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7465905381233751</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7248397502778187</v>
+        <v>0.7246495303423846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7670502327940475</v>
+        <v>0.7655936024960902</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>85041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68342</v>
+        <v>67252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103895</v>
+        <v>105092</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08841884473297988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0710564461695703</v>
+        <v>0.06992341160538532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1080209614626933</v>
+        <v>0.1092662827819498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -1266,19 +1266,19 @@
         <v>118383</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>99926</v>
+        <v>99526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142660</v>
+        <v>141801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.122247080707285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1031871409818298</v>
+        <v>0.102774384986066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1473158610077086</v>
+        <v>0.14642915262742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>195</v>
@@ -1287,19 +1287,19 @@
         <v>203424</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>176592</v>
+        <v>177185</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>235691</v>
+        <v>230066</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1053907370828806</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09148925459300201</v>
+        <v>0.09179675831255876</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.122107434285058</v>
+        <v>0.1191930735339552</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>69689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54452</v>
+        <v>54245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89041</v>
+        <v>87275</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07245692809566216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05661516883475479</v>
+        <v>0.05639976837188659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09257704892651226</v>
+        <v>0.09074108720216133</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>124</v>
@@ -1337,19 +1337,19 @@
         <v>135063</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>113687</v>
+        <v>116170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>157375</v>
+        <v>159861</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1394713345936182</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1173972065334996</v>
+        <v>0.1199614967972744</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1625111193253732</v>
+        <v>0.1650787180690196</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>191</v>
@@ -1358,19 +1358,19 @@
         <v>204752</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>177893</v>
+        <v>177950</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>233728</v>
+        <v>233222</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1060785835032837</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09216329828241553</v>
+        <v>0.09219309033584688</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1210902650222973</v>
+        <v>0.1208281820875008</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>21202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13090</v>
+        <v>13165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32606</v>
+        <v>32549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02204368743875991</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01361032940709383</v>
+        <v>0.01368795420443038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03390142269555192</v>
+        <v>0.03384167760646531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1408,19 +1408,19 @@
         <v>24733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15106</v>
+        <v>15946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36146</v>
+        <v>37296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0255405570783896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01559877909454148</v>
+        <v>0.0164665231887331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0373254420290111</v>
+        <v>0.03851287568261049</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1429,19 +1429,19 @@
         <v>45935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33217</v>
+        <v>32275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61780</v>
+        <v>60224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0237980944711133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01720934061903209</v>
+        <v>0.01672087780784492</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03200693259341152</v>
+        <v>0.03120114898595835</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>17705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9827</v>
+        <v>9966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27783</v>
+        <v>27796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01840865523719866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01021712426736152</v>
+        <v>0.01036159608247789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02888673375263177</v>
+        <v>0.02890046953775237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1479,19 +1479,19 @@
         <v>17312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10214</v>
+        <v>9668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28094</v>
+        <v>26879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01787725353573414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01054753178789754</v>
+        <v>0.009983177302488903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02901103317158666</v>
+        <v>0.02775667595722833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1500,19 +1500,19 @@
         <v>35018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24847</v>
+        <v>25587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50198</v>
+        <v>49767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01814204681934736</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01287272892124158</v>
+        <v>0.01325594788150673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02600697114749868</v>
+        <v>0.02578357364374543</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>557312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>535843</v>
+        <v>535703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>576668</v>
+        <v>576557</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8213769556793392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7897354427905153</v>
+        <v>0.7895292268925257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8499043756253748</v>
+        <v>0.8497410757752064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>491</v>
@@ -1625,19 +1625,19 @@
         <v>482982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>459378</v>
+        <v>456699</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>506622</v>
+        <v>505677</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.706278616281939</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.671761066842617</v>
+        <v>0.6678439613270555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7408477723384894</v>
+        <v>0.7394663198302626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1016</v>
@@ -1646,19 +1646,19 @@
         <v>1040294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1007257</v>
+        <v>1009231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1068548</v>
+        <v>1070891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7636025434525583</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7393524284590841</v>
+        <v>0.7408018094279203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7843418425003715</v>
+        <v>0.7860619346715603</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>61248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47095</v>
+        <v>47295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78417</v>
+        <v>77181</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09026784023994448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06940981217266039</v>
+        <v>0.0697036715604558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1155721163421408</v>
+        <v>0.11375153869161</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -1696,19 +1696,19 @@
         <v>88101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70967</v>
+        <v>71569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106606</v>
+        <v>106237</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1288319578675408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1037774498856373</v>
+        <v>0.1046575355798868</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1558932123635825</v>
+        <v>0.1553532431803656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -1717,19 +1717,19 @@
         <v>149348</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125425</v>
+        <v>127826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>172795</v>
+        <v>173104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1096253673827657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09206514276959417</v>
+        <v>0.09382793118000662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1268359472610913</v>
+        <v>0.1270629339357386</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>37306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26819</v>
+        <v>26864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50775</v>
+        <v>50949</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05498305650101147</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03952566354802882</v>
+        <v>0.03959210425875686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07483391715301355</v>
+        <v>0.07508991900560021</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -1767,19 +1767,19 @@
         <v>75719</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60707</v>
+        <v>60561</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91525</v>
+        <v>93277</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1107257803695358</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08877409014337379</v>
+        <v>0.08856062660302304</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1338393303492995</v>
+        <v>0.1364019934731658</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -1788,19 +1788,19 @@
         <v>113025</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93739</v>
+        <v>94211</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>133764</v>
+        <v>133872</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08296350456207612</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0688068907417729</v>
+        <v>0.06915329792816448</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09818632082278456</v>
+        <v>0.09826583346580743</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>11997</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6749</v>
+        <v>6298</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21324</v>
+        <v>20348</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01768088160381726</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009946350510162447</v>
+        <v>0.009282847955197501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0314275728599391</v>
+        <v>0.02998922699420515</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1838,19 +1838,19 @@
         <v>24813</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16174</v>
+        <v>16424</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34797</v>
+        <v>36457</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03628527329439374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02365190907969647</v>
+        <v>0.02401698659134745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05088472027282223</v>
+        <v>0.05331207563410498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1859,19 +1859,19 @@
         <v>36810</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26204</v>
+        <v>26857</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49033</v>
+        <v>49567</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02701948544803695</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01923447802979077</v>
+        <v>0.01971390982458243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03599172409365847</v>
+        <v>0.03638347116061771</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>10647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5231</v>
+        <v>4538</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20209</v>
+        <v>20141</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01569126597588757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007709807168317326</v>
+        <v>0.006687957139719741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02978511680336791</v>
+        <v>0.02968350997470311</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1909,19 +1909,19 @@
         <v>12226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5892</v>
+        <v>6957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19801</v>
+        <v>20452</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0178783721865906</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008615488197276618</v>
+        <v>0.01017317418171188</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02895493094018974</v>
+        <v>0.02990805498913797</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1930,19 +1930,19 @@
         <v>22873</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14628</v>
+        <v>14839</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35227</v>
+        <v>34209</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01678909915456299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01073736080773808</v>
+        <v>0.01089206555571594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02585773724506201</v>
+        <v>0.02511030779455586</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>716130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>687564</v>
+        <v>689526</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>740440</v>
+        <v>742043</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7600440778354541</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7297258356767077</v>
+        <v>0.7318080502829025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7858442574669776</v>
+        <v>0.7875463238628627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>683</v>
@@ -2055,19 +2055,19 @@
         <v>707545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>676421</v>
+        <v>675642</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>736806</v>
+        <v>736791</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6812405219036914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6512738576856709</v>
+        <v>0.6505240510843397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7094137502161023</v>
+        <v>0.7093998773035878</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1445</v>
@@ -2076,19 +2076,19 @@
         <v>1423675</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1384496</v>
+        <v>1385288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1460996</v>
+        <v>1463484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7187249592419066</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6989461476386238</v>
+        <v>0.6993460159374676</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7375659983257807</v>
+        <v>0.7388223371338583</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>112139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>93782</v>
+        <v>93445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>133142</v>
+        <v>132339</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1190151564329928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09953287340102047</v>
+        <v>0.09917534592844836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1413068954882656</v>
+        <v>0.1404536975089335</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -2126,19 +2126,19 @@
         <v>123717</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>104933</v>
+        <v>104598</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147255</v>
+        <v>145327</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1191172249030775</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.101032114605064</v>
+        <v>0.1007097334885154</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1417808860968401</v>
+        <v>0.1399241800914147</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>231</v>
@@ -2147,19 +2147,19 @@
         <v>235855</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>204737</v>
+        <v>207969</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>264386</v>
+        <v>265817</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1190686740588185</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1033591387073666</v>
+        <v>0.1049906609789231</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1334718419017369</v>
+        <v>0.1341942598177784</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>83663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67554</v>
+        <v>67565</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>100624</v>
+        <v>102051</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08879319253081987</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0716963727616714</v>
+        <v>0.07170861635024986</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1067941212966632</v>
+        <v>0.108308732131882</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -2197,19 +2197,19 @@
         <v>136219</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>115581</v>
+        <v>116560</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>159345</v>
+        <v>159994</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1311548406115782</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1112840721582643</v>
+        <v>0.1122265041178542</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1534211448565244</v>
+        <v>0.154046052116826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>217</v>
@@ -2218,19 +2218,19 @@
         <v>219882</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>194679</v>
+        <v>192439</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>250111</v>
+        <v>250062</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1110047024071335</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09828108513239972</v>
+        <v>0.09715047128682421</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1262656916041237</v>
+        <v>0.126240681026509</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>11522</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5866</v>
+        <v>5796</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20319</v>
+        <v>20549</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0122281472900751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006225490002469707</v>
+        <v>0.006151900942617197</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02156465375481379</v>
+        <v>0.0218089722087664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2268,19 +2268,19 @@
         <v>37134</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27390</v>
+        <v>27087</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51246</v>
+        <v>50964</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03575317909766269</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02637146238427863</v>
+        <v>0.02608020595254405</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04934099303584968</v>
+        <v>0.04906934882700242</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2289,19 +2289,19 @@
         <v>48655</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36416</v>
+        <v>36598</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63698</v>
+        <v>63155</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02456304217751382</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01838425461743513</v>
+        <v>0.01847582220338553</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03215739766579979</v>
+        <v>0.03188298753481293</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>18769</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11260</v>
+        <v>10887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28637</v>
+        <v>28364</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01991942591065813</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01195067669794853</v>
+        <v>0.01155475315072157</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03039346169737726</v>
+        <v>0.03010373880321617</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -2339,19 +2339,19 @@
         <v>33998</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23437</v>
+        <v>23502</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47567</v>
+        <v>46609</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03273423348399013</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02256565163905358</v>
+        <v>0.02262852878449229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04579816958632557</v>
+        <v>0.04487619791575548</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -2360,19 +2360,19 @@
         <v>52767</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39136</v>
+        <v>40527</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>68399</v>
+        <v>68820</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02663862211462761</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0197573642268809</v>
+        <v>0.02045938207076776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03453051036557581</v>
+        <v>0.0347431645505474</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>2589335</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2537684</v>
+        <v>2539693</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2634179</v>
+        <v>2636353</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7902642081877826</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7745003892531258</v>
+        <v>0.7751134806398913</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8039507988205913</v>
+        <v>0.8046141739539114</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2292</v>
@@ -2485,19 +2485,19 @@
         <v>2342127</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2287787</v>
+        <v>2286197</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2395748</v>
+        <v>2393675</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6931017688338678</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6770208062253898</v>
+        <v>0.6765502751346204</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7089696027083857</v>
+        <v>0.7083561962595885</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4825</v>
@@ -2506,19 +2506,19 @@
         <v>4931463</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4860428</v>
+        <v>4859596</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5010639</v>
+        <v>5009020</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7409337021157486</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7302610191179767</v>
+        <v>0.730135971487533</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7528295689587832</v>
+        <v>0.7525863760917491</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>340744</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>308877</v>
+        <v>306834</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>376499</v>
+        <v>379517</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1039950242614737</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0942691112572802</v>
+        <v>0.09364556172581028</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1149073231597729</v>
+        <v>0.1158283997416414</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>445</v>
@@ -2556,19 +2556,19 @@
         <v>457059</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>420469</v>
+        <v>413589</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>499243</v>
+        <v>496757</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1352566092356671</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1244285778447247</v>
+        <v>0.1223927208946869</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1477400845934316</v>
+        <v>0.1470045249350617</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>784</v>
@@ -2577,19 +2577,19 @@
         <v>797803</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>748591</v>
+        <v>750259</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>852482</v>
+        <v>857769</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1198668963310248</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1124730055956131</v>
+        <v>0.1127236452350785</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.128082274089462</v>
+        <v>0.1288764940750098</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>242053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>213285</v>
+        <v>212311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>272118</v>
+        <v>273333</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0738745978799787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0650945361867676</v>
+        <v>0.06479726771756945</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08305031382471141</v>
+        <v>0.08342117179825267</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>404</v>
@@ -2627,19 +2627,19 @@
         <v>416118</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>380746</v>
+        <v>380051</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>454742</v>
+        <v>456527</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1231411514101412</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1126735204141592</v>
+        <v>0.1124677802670217</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1345709548688477</v>
+        <v>0.1350991711873093</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>646</v>
@@ -2648,19 +2648,19 @@
         <v>658172</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>611319</v>
+        <v>608209</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>708942</v>
+        <v>709877</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09888780292329101</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09184831962923483</v>
+        <v>0.09138109640636957</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1065158020274111</v>
+        <v>0.1066563704667999</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>52519</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38782</v>
+        <v>39014</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>68688</v>
+        <v>69292</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01602890997412547</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0118361728905271</v>
+        <v>0.01190709417394318</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02096368234593981</v>
+        <v>0.02114775480757978</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>92</v>
@@ -2698,19 +2698,19 @@
         <v>97013</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>79893</v>
+        <v>80618</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>116302</v>
+        <v>122419</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02870888370594018</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02364267267573019</v>
+        <v>0.02385711729840063</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03441714846631437</v>
+        <v>0.03622710293809021</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>143</v>
@@ -2719,19 +2719,19 @@
         <v>149532</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>125193</v>
+        <v>127381</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>175116</v>
+        <v>176896</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02246668083835927</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01880974169413447</v>
+        <v>0.01913854096895457</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02631057234439534</v>
+        <v>0.02657801677092463</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>51891</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38519</v>
+        <v>39036</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>68755</v>
+        <v>69004</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01583725969663946</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01175596362873004</v>
+        <v>0.01191382956211464</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02098403086702357</v>
+        <v>0.02106006686775986</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -2769,19 +2769,19 @@
         <v>66880</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>52283</v>
+        <v>52310</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85217</v>
+        <v>85024</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01979158681438376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01547212153930837</v>
+        <v>0.01548008069064105</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02521802502445718</v>
+        <v>0.02516096734258038</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>113</v>
@@ -2790,19 +2790,19 @@
         <v>118771</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>97500</v>
+        <v>96240</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>142355</v>
+        <v>143509</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01784491779157627</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01464897577888105</v>
+        <v>0.01445966275405806</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02138828540219383</v>
+        <v>0.02156166054861972</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>523852</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>497744</v>
+        <v>498304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>546433</v>
+        <v>545786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7456930340287193</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7085286192478889</v>
+        <v>0.7093260546809421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7778367806314425</v>
+        <v>0.77691520221642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>398</v>
@@ -3155,19 +3155,19 @@
         <v>425204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>398579</v>
+        <v>399659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>453236</v>
+        <v>450153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6108241485147411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5725765835350131</v>
+        <v>0.5741273286304525</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6510931805094688</v>
+        <v>0.6466644696016539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>899</v>
@@ -3176,19 +3176,19 @@
         <v>949055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>914388</v>
+        <v>911381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>984084</v>
+        <v>982874</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6785666269073316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6537796048485216</v>
+        <v>0.651629693733118</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7036119137627092</v>
+        <v>0.7027465930985559</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>99626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83479</v>
+        <v>81584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121865</v>
+        <v>118969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1418157987532253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1188300102520115</v>
+        <v>0.1161338012695067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.17347161327032</v>
+        <v>0.1693499180484223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -3226,19 +3226,19 @@
         <v>110909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92772</v>
+        <v>93425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132703</v>
+        <v>133291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1593257547555811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1332710557908469</v>
+        <v>0.1342090507502011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1906344222378317</v>
+        <v>0.191477744918423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -3247,19 +3247,19 @@
         <v>210535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185551</v>
+        <v>183270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>238568</v>
+        <v>240225</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.150530784650917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1326675638566485</v>
+        <v>0.1310365271459361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1705741857674501</v>
+        <v>0.1717591206317929</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>44637</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32724</v>
+        <v>31107</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59040</v>
+        <v>58527</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0635399287735931</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04658138900149446</v>
+        <v>0.04428046185290808</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0840422804013928</v>
+        <v>0.08331179635034068</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>81</v>
@@ -3297,19 +3297,19 @@
         <v>83645</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68151</v>
+        <v>67294</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101566</v>
+        <v>101541</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.120159169487043</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09790208548532488</v>
+        <v>0.09667058823809921</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.145903769542321</v>
+        <v>0.145868528532959</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>124</v>
@@ -3318,19 +3318,19 @@
         <v>128282</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>109154</v>
+        <v>108907</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>151000</v>
+        <v>154791</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09172023284113859</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07804434218981293</v>
+        <v>0.07786737467776278</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1079636081217239</v>
+        <v>0.1106741926155434</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>22561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13861</v>
+        <v>13603</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34900</v>
+        <v>34057</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03211533813777906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0197309229843126</v>
+        <v>0.01936351993431761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04967985849571358</v>
+        <v>0.04848012019671193</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3368,19 +3368,19 @@
         <v>42331</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30896</v>
+        <v>30598</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57498</v>
+        <v>56721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.060810227942671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04438402758539262</v>
+        <v>0.0439553854093911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08259838585493752</v>
+        <v>0.08148230124109625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -3389,19 +3389,19 @@
         <v>64892</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49600</v>
+        <v>49190</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84982</v>
+        <v>83849</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04639724495421002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0354637252273502</v>
+        <v>0.0351706794145304</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06076110926615534</v>
+        <v>0.05995148171930591</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>11827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6235</v>
+        <v>6191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19990</v>
+        <v>21307</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0168359003066832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008874881954630435</v>
+        <v>0.008812868663745985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02845531960169393</v>
+        <v>0.03033008467003139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -3439,19 +3439,19 @@
         <v>34027</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23283</v>
+        <v>23611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47049</v>
+        <v>46114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04888069929996378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03344688982683902</v>
+        <v>0.03391861129465965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06758836166070838</v>
+        <v>0.06624501687199626</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -3460,19 +3460,19 @@
         <v>45854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33043</v>
+        <v>34378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60626</v>
+        <v>61343</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03278511064640269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0236253986689886</v>
+        <v>0.02458004934888888</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04334679763247104</v>
+        <v>0.04385951620801554</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>761549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>733678</v>
+        <v>730923</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>791891</v>
+        <v>789034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7481221098617213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.720742974400327</v>
+        <v>0.7180362352187813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7779294705274934</v>
+        <v>0.7751225475032301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>582</v>
@@ -3585,19 +3585,19 @@
         <v>640465</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>606270</v>
+        <v>608860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>671777</v>
+        <v>671647</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6211080058666407</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5879464344323447</v>
+        <v>0.5904582769182358</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6514736016467947</v>
+        <v>0.651347458473325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1282</v>
@@ -3606,19 +3606,19 @@
         <v>1402014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1356998</v>
+        <v>1358317</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1446625</v>
+        <v>1444714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6842054116699704</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6622371439387255</v>
+        <v>0.6628807012862979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7059765852501135</v>
+        <v>0.705044175258662</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>117686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96817</v>
+        <v>97950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138555</v>
+        <v>139128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1156111297647917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0951098593190834</v>
+        <v>0.09622328815940567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1361118912060951</v>
+        <v>0.1366751208449065</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -3656,19 +3656,19 @@
         <v>156102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131511</v>
+        <v>135380</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181100</v>
+        <v>181883</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1513841190318845</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1275363107308181</v>
+        <v>0.1312882290015523</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1756262038790994</v>
+        <v>0.1763860024810838</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -3677,19 +3677,19 @@
         <v>273788</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243083</v>
+        <v>244030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>306914</v>
+        <v>306456</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1336129995295076</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1186286148434223</v>
+        <v>0.1190904423135562</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1497790804711987</v>
+        <v>0.1495555565167715</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>88921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71019</v>
+        <v>71998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109520</v>
+        <v>107761</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08735326527151353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0697671937473141</v>
+        <v>0.07072875590476321</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1075887333391489</v>
+        <v>0.1058609608553909</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>138</v>
@@ -3727,19 +3727,19 @@
         <v>151022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130105</v>
+        <v>129766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>178829</v>
+        <v>174210</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1464574842510238</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1261727446327696</v>
+        <v>0.1258442384513581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1734245904473088</v>
+        <v>0.1689447823902232</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>218</v>
@@ -3748,19 +3748,19 @@
         <v>239943</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>211815</v>
+        <v>212979</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>271332</v>
+        <v>269873</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1170959978307168</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1033690225786089</v>
+        <v>0.1039370773227331</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1324142949900284</v>
+        <v>0.1317024776941973</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>32702</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22872</v>
+        <v>22751</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46358</v>
+        <v>45805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03212503650551283</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02246875500448718</v>
+        <v>0.02234959111097247</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04554023912302278</v>
+        <v>0.04499702694349664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3798,19 +3798,19 @@
         <v>51350</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38529</v>
+        <v>38051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66325</v>
+        <v>66860</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04979837788145788</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03736473160168673</v>
+        <v>0.0369008290005688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06432005471484453</v>
+        <v>0.06483946334665647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -3819,19 +3819,19 @@
         <v>84052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66315</v>
+        <v>66752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104801</v>
+        <v>103187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04101870729667013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03236270859941296</v>
+        <v>0.03257605055894873</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05114473331355762</v>
+        <v>0.05035717363092698</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>17090</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9617</v>
+        <v>9382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27631</v>
+        <v>26794</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01678845859646062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009447840539775777</v>
+        <v>0.009216957070869324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02714433338020012</v>
+        <v>0.02632114090589688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -3869,19 +3869,19 @@
         <v>32226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22208</v>
+        <v>22072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45736</v>
+        <v>44484</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03125201296899304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02153722516290301</v>
+        <v>0.02140502285582051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04435326036848301</v>
+        <v>0.04313912220224361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -3890,19 +3890,19 @@
         <v>49316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37094</v>
+        <v>35550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65756</v>
+        <v>65575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02406688367313509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01810231953054407</v>
+        <v>0.01734906428967282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03208998890341606</v>
+        <v>0.032001893267492</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>595097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>569477</v>
+        <v>570306</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>619662</v>
+        <v>617508</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7864621040463269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7526031535929792</v>
+        <v>0.7536995005140036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8189264357016525</v>
+        <v>0.8160801796068136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>475</v>
@@ -4015,19 +4015,19 @@
         <v>527602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>503146</v>
+        <v>501950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>553670</v>
+        <v>552170</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6798331194442615</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6483206295868525</v>
+        <v>0.646779689601783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7134225777079543</v>
+        <v>0.7114900288926813</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1017</v>
@@ -4036,19 +4036,19 @@
         <v>1122700</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1085892</v>
+        <v>1083780</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1158036</v>
+        <v>1155702</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7324728162779051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7084582865467012</v>
+        <v>0.7070809064966237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7555268838434821</v>
+        <v>0.7540042379314054</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>68744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53753</v>
+        <v>52967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87966</v>
+        <v>86132</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09085028839571163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0710385251914385</v>
+        <v>0.06999922652855503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.116253071211862</v>
+        <v>0.1138298888236244</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -4086,19 +4086,19 @@
         <v>88862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71876</v>
+        <v>72055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>109456</v>
+        <v>108217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1145019258259329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09261447852817377</v>
+        <v>0.09284533548895287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1410372662425618</v>
+        <v>0.1394413182845644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>147</v>
@@ -4107,19 +4107,19 @@
         <v>157607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135622</v>
+        <v>133924</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>183639</v>
+        <v>184155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1028257851537466</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08848263096788106</v>
+        <v>0.08737497675969801</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1198099979077767</v>
+        <v>0.1201462742360306</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>62774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47067</v>
+        <v>47521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81534</v>
+        <v>80904</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0829598321162151</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06220219380930301</v>
+        <v>0.06280175884504499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.107753167245144</v>
+        <v>0.1069207243469966</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -4157,19 +4157,19 @@
         <v>93219</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76040</v>
+        <v>75853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>111630</v>
+        <v>111945</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1201160027328646</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0979800471169183</v>
+        <v>0.09773858630015139</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1438388970169161</v>
+        <v>0.1442443259348423</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>141</v>
@@ -4178,19 +4178,19 @@
         <v>155993</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132380</v>
+        <v>133047</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>182400</v>
+        <v>184245</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1017730581380262</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08636773177299822</v>
+        <v>0.08680245081283393</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1190012931683846</v>
+        <v>0.120205491678708</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>19558</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11668</v>
+        <v>12254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31540</v>
+        <v>29961</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02584789541100787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01541989457568878</v>
+        <v>0.01619424082803199</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04168190961041216</v>
+        <v>0.03959491783575903</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -4228,19 +4228,19 @@
         <v>41665</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31115</v>
+        <v>30294</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56865</v>
+        <v>56762</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05368728994960624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04009313830889539</v>
+        <v>0.0390347892014376</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07327186738823982</v>
+        <v>0.07313929627681202</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -4249,19 +4249,19 @@
         <v>61224</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47762</v>
+        <v>47131</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79567</v>
+        <v>78525</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03994377270602534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03116097508035618</v>
+        <v>0.03074942722558221</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05191102087187864</v>
+        <v>0.05123145634210943</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>10503</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5165</v>
+        <v>5024</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19832</v>
+        <v>19740</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01387988003073848</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006826274992251281</v>
+        <v>0.006640072299835326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02620983929444733</v>
+        <v>0.02608791281170675</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -4299,19 +4299,19 @@
         <v>24727</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15151</v>
+        <v>16080</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38487</v>
+        <v>38683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03186166204733468</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01952314007251799</v>
+        <v>0.02071967625559283</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0495919204901732</v>
+        <v>0.04984477635467197</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -4320,19 +4320,19 @@
         <v>35230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24012</v>
+        <v>24278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50327</v>
+        <v>49353</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02298456772429682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01566577905310639</v>
+        <v>0.01583955649073852</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03283446889664609</v>
+        <v>0.03219881997860992</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>691091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>662426</v>
+        <v>661678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>717635</v>
+        <v>717329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7299925428521644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6997149314964485</v>
+        <v>0.6989243134644334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7580310360138531</v>
+        <v>0.7577080981529842</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>621</v>
@@ -4445,19 +4445,19 @@
         <v>648875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>614593</v>
+        <v>615526</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>679137</v>
+        <v>678453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.616859544000361</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5842686889142401</v>
+        <v>0.5851561972932511</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6456286655946383</v>
+        <v>0.6449782090520382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1292</v>
@@ -4466,19 +4466,19 @@
         <v>1339966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1300466</v>
+        <v>1298505</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1382769</v>
+        <v>1381107</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.670448802644659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.650685166607371</v>
+        <v>0.6497041171503362</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6918652283518929</v>
+        <v>0.69103391780138</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>115419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95074</v>
+        <v>95175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137789</v>
+        <v>139270</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1219156342420339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1004254408770368</v>
+        <v>0.1005319595628737</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.145545069743036</v>
+        <v>0.1471095518658758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>159</v>
@@ -4516,19 +4516,19 @@
         <v>165130</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>141071</v>
+        <v>141503</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>190445</v>
+        <v>188260</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1569829036619082</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1341100895950036</v>
+        <v>0.134521241264235</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1810484311624343</v>
+        <v>0.1789708545462542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>265</v>
@@ -4537,19 +4537,19 @@
         <v>280549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>248219</v>
+        <v>251737</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>313571</v>
+        <v>314910</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1403721093758609</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1241956695380774</v>
+        <v>0.1259558819600727</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1568943263204628</v>
+        <v>0.1575644256255861</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>95500</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78304</v>
+        <v>77232</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114527</v>
+        <v>117281</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1008758946841541</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08271132387574123</v>
+        <v>0.08157945058262779</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1209734687975359</v>
+        <v>0.1238824957962843</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -4587,19 +4587,19 @@
         <v>132661</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111326</v>
+        <v>112025</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155914</v>
+        <v>158186</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1261157803968103</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1058332432869212</v>
+        <v>0.1064976955699384</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1482211806573602</v>
+        <v>0.1503812108769223</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>214</v>
@@ -4608,19 +4608,19 @@
         <v>228161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>200704</v>
+        <v>202236</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>257154</v>
+        <v>257684</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1141600576869416</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1004216374973935</v>
+        <v>0.1011881493024956</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1286663468603063</v>
+        <v>0.128931575509752</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>33845</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23677</v>
+        <v>23939</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50951</v>
+        <v>48258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03574997189613149</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02501000181515729</v>
+        <v>0.02528683104358776</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05381957953254242</v>
+        <v>0.05097487546321785</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -4658,19 +4658,19 @@
         <v>72061</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57720</v>
+        <v>56547</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90457</v>
+        <v>89017</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0685058611438521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05487163506616195</v>
+        <v>0.05375663145690595</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08599376012666238</v>
+        <v>0.08462512153567145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -4679,19 +4679,19 @@
         <v>105906</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86393</v>
+        <v>88072</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127519</v>
+        <v>127648</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05298992999347672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04322646411726479</v>
+        <v>0.04406668410338459</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0638036929801495</v>
+        <v>0.06386827707658432</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>10855</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5112</v>
+        <v>5864</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18332</v>
+        <v>20004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01146595632551615</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005399293263912632</v>
+        <v>0.006194138970749287</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0193637333019788</v>
+        <v>0.02113033190754799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -4729,19 +4729,19 @@
         <v>33173</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23190</v>
+        <v>22868</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47786</v>
+        <v>46562</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03153591079706839</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02204615304372397</v>
+        <v>0.0217401075136942</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0454281186215477</v>
+        <v>0.04426441339312338</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -4750,19 +4750,19 @@
         <v>44028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32088</v>
+        <v>32540</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58812</v>
+        <v>58784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02202910029906175</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01605496660846004</v>
+        <v>0.01628148741270355</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02942632695802254</v>
+        <v>0.02941224713318999</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2571589</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2522795</v>
+        <v>2512701</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2622745</v>
+        <v>2622573</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7510840240936996</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7368329224367367</v>
+        <v>0.7338847544615188</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7660254298675465</v>
+        <v>0.7659751563476226</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2076</v>
@@ -4875,19 +4875,19 @@
         <v>2242146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2180611</v>
+        <v>2181694</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2300451</v>
+        <v>2298423</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6306565310305707</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6133482206466462</v>
+        <v>0.6136529365944059</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.647056055821424</v>
+        <v>0.6464858863310836</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4490</v>
@@ -4896,19 +4896,19 @@
         <v>4813735</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4726832</v>
+        <v>4728904</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4891395</v>
+        <v>4890609</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6897364150133457</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6772846092374659</v>
+        <v>0.6775814364786732</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7008639566305018</v>
+        <v>0.7007513998035849</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>401475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>359835</v>
+        <v>364275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>439410</v>
+        <v>444271</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1172588318982394</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1050969885976581</v>
+        <v>0.1063939410214599</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1283385920016536</v>
+        <v>0.1297581816497731</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>483</v>
@@ -4946,19 +4946,19 @@
         <v>521004</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>478869</v>
+        <v>477643</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>567150</v>
+        <v>565255</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1465445989611022</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.134693221316744</v>
+        <v>0.1343484138510384</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1595242366519053</v>
+        <v>0.1589913140491036</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>862</v>
@@ -4967,19 +4967,19 @@
         <v>922479</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>869163</v>
+        <v>865871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>983301</v>
+        <v>985214</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1321774500949083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1245381623583128</v>
+        <v>0.1240664731651666</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1408923715524329</v>
+        <v>0.1411664612831409</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>291832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>258887</v>
+        <v>258202</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>330723</v>
+        <v>327746</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08523535813919546</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07561327347798213</v>
+        <v>0.07541297881255551</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09659414382748237</v>
+        <v>0.09572485865263786</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>430</v>
@@ -5017,19 +5017,19 @@
         <v>460547</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>418677</v>
+        <v>420906</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>503534</v>
+        <v>503117</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1295396898593955</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.117762816087162</v>
+        <v>0.1183898493603063</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1416309084172967</v>
+        <v>0.1415135174528437</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>697</v>
@@ -5038,19 +5038,19 @@
         <v>752379</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>698434</v>
+        <v>699859</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>804312</v>
+        <v>804517</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1078046631525646</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1000752360444225</v>
+        <v>0.1002793214508527</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1152458668925734</v>
+        <v>0.1152753528861145</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>108666</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>89846</v>
+        <v>89882</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>133687</v>
+        <v>133435</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03173809668573643</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02624135935229236</v>
+        <v>0.02625190588865828</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03904609006334596</v>
+        <v>0.03897251340265801</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>195</v>
@@ -5088,19 +5088,19 @@
         <v>207408</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>177730</v>
+        <v>179291</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>238272</v>
+        <v>238441</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0583384149153568</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04999086336983868</v>
+        <v>0.05042992731132288</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06701960327116674</v>
+        <v>0.06706715544710654</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>294</v>
@@ -5109,19 +5109,19 @@
         <v>316074</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>284197</v>
+        <v>283819</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>356788</v>
+        <v>353200</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04528870612429982</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04072117599383668</v>
+        <v>0.04066708494067438</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05112234234735952</v>
+        <v>0.05060824009194197</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>50275</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37730</v>
+        <v>37912</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67818</v>
+        <v>67157</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01468368918312914</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01101982442084522</v>
+        <v>0.01107295868702071</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01980756965125749</v>
+        <v>0.01961448798088661</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>111</v>
@@ -5159,19 +5159,19 @@
         <v>124152</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>103361</v>
+        <v>100763</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>147414</v>
+        <v>147937</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03492076523357478</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02907273768124632</v>
+        <v>0.0283419327677732</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04146356615237067</v>
+        <v>0.04161082412683667</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>158</v>
@@ -5180,19 +5180,19 @@
         <v>174427</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>148703</v>
+        <v>149386</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>203193</v>
+        <v>202204</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02499276561488157</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02130697384799322</v>
+        <v>0.02140473409152025</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0291145492751301</v>
+        <v>0.02897276533245894</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>546975</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>524370</v>
+        <v>523632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>564766</v>
+        <v>566163</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8105739480095614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7770747343884606</v>
+        <v>0.7759817139841558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8369385185935448</v>
+        <v>0.8390089134814179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>490</v>
@@ -5545,19 +5545,19 @@
         <v>487030</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>463527</v>
+        <v>462850</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>511090</v>
+        <v>508479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7258915286399839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6908613672683241</v>
+        <v>0.6898529900482389</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.761752031242387</v>
+        <v>0.7578601124485639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1016</v>
@@ -5566,19 +5566,19 @@
         <v>1034005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1002870</v>
+        <v>1001461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1064698</v>
+        <v>1063057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7683541967593426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7452179789689423</v>
+        <v>0.7441711315742061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7911613781303832</v>
+        <v>0.7899423543059723</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>67414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53180</v>
+        <v>54414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84917</v>
+        <v>87328</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09990185589410117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07880902184458924</v>
+        <v>0.08063658382187046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1258398083027916</v>
+        <v>0.1294130638785292</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -5616,19 +5616,19 @@
         <v>80566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65423</v>
+        <v>64687</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99153</v>
+        <v>98187</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1200791687633844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09751010454486334</v>
+        <v>0.09641215969747542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1477820880101343</v>
+        <v>0.1463431092775656</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -5637,19 +5637,19 @@
         <v>147980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126694</v>
+        <v>125395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>172139</v>
+        <v>172511</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1099615723804846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09414460258992947</v>
+        <v>0.09317935422592896</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1279143281528753</v>
+        <v>0.1281903386721595</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>34134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24326</v>
+        <v>23655</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49100</v>
+        <v>47437</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05058378016177228</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0360499346402839</v>
+        <v>0.03505452073622467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07276214549216099</v>
+        <v>0.07029729148253833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -5687,19 +5687,19 @@
         <v>60172</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46095</v>
+        <v>45766</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76292</v>
+        <v>76294</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08968239264112271</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06870264900584583</v>
+        <v>0.06821229473197127</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.113709652200471</v>
+        <v>0.1137121107055487</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -5708,19 +5708,19 @@
         <v>94305</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77722</v>
+        <v>77046</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>115794</v>
+        <v>113799</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07007700798161783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05775438516606755</v>
+        <v>0.05725193969899892</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08604470410773404</v>
+        <v>0.08456229289895571</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>16479</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9247</v>
+        <v>9978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26109</v>
+        <v>27199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02442099673237899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0137032888011516</v>
+        <v>0.01478720583444827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03869211378436593</v>
+        <v>0.04030677925239395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5758,19 +5758,19 @@
         <v>22115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14105</v>
+        <v>13485</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33641</v>
+        <v>32735</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03296160050756285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02102266995368873</v>
+        <v>0.02009805875015881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05014048757564969</v>
+        <v>0.04878918244186916</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -5779,19 +5779,19 @@
         <v>38595</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27842</v>
+        <v>28131</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53320</v>
+        <v>53207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02867904898926199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02068877776933207</v>
+        <v>0.02090358185002358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03962102278666085</v>
+        <v>0.03953712208351923</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>9798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4558</v>
+        <v>5032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16494</v>
+        <v>16891</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01451941920218618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006754341746295702</v>
+        <v>0.007456979399540291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02444289857613702</v>
+        <v>0.02503079631019377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -5829,19 +5829,19 @@
         <v>21058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12517</v>
+        <v>13450</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32560</v>
+        <v>34399</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03138530944794622</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01865625105791649</v>
+        <v>0.02004639278983275</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04852918949143756</v>
+        <v>0.05126920266078573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -5850,19 +5850,19 @@
         <v>30855</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20865</v>
+        <v>20585</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42559</v>
+        <v>44018</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.022928173889293</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01550436414553292</v>
+        <v>0.01529649672279233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03162463322683103</v>
+        <v>0.03270920580715982</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>802717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>774512</v>
+        <v>775692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>828257</v>
+        <v>829657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7858537452624382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7582413262513742</v>
+        <v>0.7593971120373854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.810857303087226</v>
+        <v>0.8122277529269489</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>690</v>
@@ -5975,19 +5975,19 @@
         <v>724969</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>691211</v>
+        <v>692502</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>755958</v>
+        <v>753880</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6957930543021003</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6633934091741344</v>
+        <v>0.6646324675273472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.725534735647319</v>
+        <v>0.7235409562434659</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1430</v>
@@ -5996,19 +5996,19 @@
         <v>1527686</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1486149</v>
+        <v>1484163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1567182</v>
+        <v>1565860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7403765929305153</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7202461794142864</v>
+        <v>0.7192838098937105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7595179133015021</v>
+        <v>0.7588773144514392</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>137405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115774</v>
+        <v>116363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159548</v>
+        <v>160871</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1345182736420576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.113341808426662</v>
+        <v>0.1139186375521904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1561959122342681</v>
+        <v>0.1574915546429468</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -6046,19 +6046,19 @@
         <v>159840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136005</v>
+        <v>139453</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185086</v>
+        <v>187348</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1534070752282045</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1305313462011798</v>
+        <v>0.1338407330807157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1776373340356039</v>
+        <v>0.1798087496781376</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>280</v>
@@ -6067,19 +6067,19 @@
         <v>297245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>267239</v>
+        <v>264911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>333886</v>
+        <v>331250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1440563850860279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.129514620951096</v>
+        <v>0.1283862728491065</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1618144169967452</v>
+        <v>0.1605365458850151</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>54042</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41082</v>
+        <v>41366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69465</v>
+        <v>70100</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05290636027929942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04021855656693881</v>
+        <v>0.04049668345655486</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06800542780892806</v>
+        <v>0.0686276891547874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -6117,19 +6117,19 @@
         <v>110724</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91326</v>
+        <v>90767</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>134743</v>
+        <v>136944</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1062675176790184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08765080416883304</v>
+        <v>0.08711381289918131</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1293202746778576</v>
+        <v>0.1314325462857183</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>149</v>
@@ -6138,19 +6138,19 @@
         <v>164765</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>139127</v>
+        <v>137129</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>191200</v>
+        <v>190934</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07985167302116418</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06742660334838378</v>
+        <v>0.06645792583218352</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09266302158520395</v>
+        <v>0.09253402969532494</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>18809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11743</v>
+        <v>11788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30108</v>
+        <v>30014</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0184142986709603</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01149629196540551</v>
+        <v>0.01154011102135767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02947540133908789</v>
+        <v>0.02938372309709061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -6188,19 +6188,19 @@
         <v>28699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19204</v>
+        <v>19263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41486</v>
+        <v>42436</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02754430597156452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01843155581281535</v>
+        <v>0.01848756558737375</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.039816031701155</v>
+        <v>0.04072804791255093</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -6209,19 +6209,19 @@
         <v>47509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34808</v>
+        <v>34860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63359</v>
+        <v>63254</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02302459788556438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01686945519545917</v>
+        <v>0.01689472499003691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03070636348132918</v>
+        <v>0.03065515844704923</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>8486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4206</v>
+        <v>3890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17049</v>
+        <v>16543</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008307322145244407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004117278837181174</v>
+        <v>0.003807980026480392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0166912000231538</v>
+        <v>0.0161953004512372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -6259,19 +6259,19 @@
         <v>17700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10254</v>
+        <v>9851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27902</v>
+        <v>27724</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01698804681911225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00984091243859068</v>
+        <v>0.009454671489432791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02677922139873384</v>
+        <v>0.02660834999234889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -6280,19 +6280,19 @@
         <v>26186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16440</v>
+        <v>17242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36413</v>
+        <v>38157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01269075107672824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007967591954074538</v>
+        <v>0.008355933412510806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01764723820808192</v>
+        <v>0.01849242105373263</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>573797</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>548145</v>
+        <v>545673</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>597841</v>
+        <v>597614</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7554410197507802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7216691552101843</v>
+        <v>0.7184147985902473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7870971978271791</v>
+        <v>0.7867980325657618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>485</v>
@@ -6405,19 +6405,19 @@
         <v>509476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>481837</v>
+        <v>482436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>537415</v>
+        <v>535767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6500569687348763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6147915154279183</v>
+        <v>0.6155567698720436</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6857051746298702</v>
+        <v>0.6836023802190655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1011</v>
@@ -6426,19 +6426,19 @@
         <v>1083272</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1045468</v>
+        <v>1046447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1122371</v>
+        <v>1119107</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7019231677391238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6774273323964031</v>
+        <v>0.6780614337551379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7272577154305548</v>
+        <v>0.7251430083862195</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>111771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92903</v>
+        <v>93174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135891</v>
+        <v>135035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1471544047902176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1223126815979391</v>
+        <v>0.1226700879995822</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1789094283441455</v>
+        <v>0.1777827319399275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -6476,19 +6476,19 @@
         <v>131587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110334</v>
+        <v>112078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153541</v>
+        <v>154610</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1678958209425037</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1407782192592443</v>
+        <v>0.1430045394659212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.195908557901703</v>
+        <v>0.1972722730625168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -6497,19 +6497,19 @@
         <v>243358</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>210512</v>
+        <v>213114</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>273048</v>
+        <v>273886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1576876499013085</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1364045175074374</v>
+        <v>0.1380903298816842</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1769253769945827</v>
+        <v>0.1774685639099503</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>46484</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34786</v>
+        <v>33496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60294</v>
+        <v>61340</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06119942632676503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04579769775188051</v>
+        <v>0.04409933724261385</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07938042940961701</v>
+        <v>0.08075852139473655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -6547,19 +6547,19 @@
         <v>102787</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83987</v>
+        <v>85380</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>123061</v>
+        <v>122475</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1311494630736172</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1071621053113939</v>
+        <v>0.1089395132817642</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1570181321743301</v>
+        <v>0.1562694333463721</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -6568,19 +6568,19 @@
         <v>149271</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126183</v>
+        <v>125508</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176245</v>
+        <v>174781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09672259780043516</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08176222829533976</v>
+        <v>0.0813247433872071</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1142009313057871</v>
+        <v>0.1132519966565418</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>12451</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7017</v>
+        <v>6462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20926</v>
+        <v>21017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01639271115858652</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009238494882042989</v>
+        <v>0.00850771833267149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02755004684481021</v>
+        <v>0.02767066645574975</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -6618,19 +6618,19 @@
         <v>28044</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18648</v>
+        <v>18670</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40658</v>
+        <v>40664</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03578168863061049</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02379379772955597</v>
+        <v>0.02382228563757592</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05187684551780567</v>
+        <v>0.05188409623177347</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -6639,19 +6639,19 @@
         <v>40495</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27539</v>
+        <v>28844</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54075</v>
+        <v>54404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02623913874418503</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01784417087268394</v>
+        <v>0.01868969725644925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03503874800733207</v>
+        <v>0.03525184643639941</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>15049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8283</v>
+        <v>8495</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24830</v>
+        <v>26232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01981243797365072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01090467444489491</v>
+        <v>0.0111841752791186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03269037779503194</v>
+        <v>0.03453590833111995</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -6689,19 +6689,19 @@
         <v>11847</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6342</v>
+        <v>5957</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22391</v>
+        <v>21054</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01511605861839238</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008091413442502826</v>
+        <v>0.007601052296223464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02856938682929093</v>
+        <v>0.02686331949068298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -6710,19 +6710,19 @@
         <v>26896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17079</v>
+        <v>17292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40251</v>
+        <v>40345</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01742744581494747</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01106687405919822</v>
+        <v>0.01120447091984463</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02608100433788084</v>
+        <v>0.02614188553284425</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>733937</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>709552</v>
+        <v>702579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>757840</v>
+        <v>757288</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7828106571066827</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7568016970762589</v>
+        <v>0.7493641503002183</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8083049560650041</v>
+        <v>0.8077160598593658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>698</v>
@@ -6835,19 +6835,19 @@
         <v>744168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>712011</v>
+        <v>711634</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>772084</v>
+        <v>772094</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7135615726211264</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6827277926649639</v>
+        <v>0.6823661139513624</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.740329481355015</v>
+        <v>0.7403390299567296</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1428</v>
@@ -6856,19 +6856,19 @@
         <v>1478105</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1434898</v>
+        <v>1437950</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1515690</v>
+        <v>1514537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7463447057284311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7245281894639753</v>
+        <v>0.7260692278031403</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7653226708825516</v>
+        <v>0.7647403527944217</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>101828</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>84839</v>
+        <v>85158</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122983</v>
+        <v>123426</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1086092023093746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09048854154050999</v>
+        <v>0.09082903856053723</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1311726180857343</v>
+        <v>0.131645314589235</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>106</v>
@@ -6906,19 +6906,19 @@
         <v>118786</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99933</v>
+        <v>98982</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>142078</v>
+        <v>141836</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1139007589661205</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09582279992982128</v>
+        <v>0.09491111264444554</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1362342419893739</v>
+        <v>0.136002252194779</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>209</v>
@@ -6927,19 +6927,19 @@
         <v>220615</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>193016</v>
+        <v>191053</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>249706</v>
+        <v>247857</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1113956889350629</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09746003190070435</v>
+        <v>0.09646922322634248</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1260849471433336</v>
+        <v>0.1251514008066149</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>65292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51971</v>
+        <v>51324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82069</v>
+        <v>84910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06963969507493213</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05543199707922504</v>
+        <v>0.05474164679775827</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08753445916242762</v>
+        <v>0.09056443860394421</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -6977,19 +6977,19 @@
         <v>113721</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>94375</v>
+        <v>95237</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>138224</v>
+        <v>139395</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1090440073275498</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09049326507057384</v>
+        <v>0.09131971314415153</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1325389946715567</v>
+        <v>0.1336623721429588</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>161</v>
@@ -6998,19 +6998,19 @@
         <v>179013</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>155317</v>
+        <v>154380</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>208632</v>
+        <v>208322</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09038965509782756</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07842483939485657</v>
+        <v>0.0779516056562348</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1053452538003245</v>
+        <v>0.1051885912171422</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>20630</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12695</v>
+        <v>12189</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33106</v>
+        <v>31567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02200409836560837</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01354058023539626</v>
+        <v>0.01300064196299872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03531099118778224</v>
+        <v>0.03366935908596009</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -7048,19 +7048,19 @@
         <v>50239</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36245</v>
+        <v>37689</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67077</v>
+        <v>67525</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04817291326019356</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03475397844833399</v>
+        <v>0.03613867015213649</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06431805999594457</v>
+        <v>0.06474785248040039</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -7069,19 +7069,19 @@
         <v>70869</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54932</v>
+        <v>54014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89489</v>
+        <v>88402</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03578436331295866</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02773690725249343</v>
+        <v>0.02727363905371403</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04518594382096587</v>
+        <v>0.04463688301089359</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>15879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9346</v>
+        <v>9192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24646</v>
+        <v>24467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01693634714340213</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009967858177291409</v>
+        <v>0.009803914887110295</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02628671659917036</v>
+        <v>0.02609580669406741</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -7119,19 +7119,19 @@
         <v>15978</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8915</v>
+        <v>8892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25430</v>
+        <v>25779</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01532074782500971</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008548180463903134</v>
+        <v>0.008526702234748331</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02438437252655511</v>
+        <v>0.02471849774208593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -7140,19 +7140,19 @@
         <v>31857</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21117</v>
+        <v>21815</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44978</v>
+        <v>45188</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01608558692571979</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01066260577702438</v>
+        <v>0.01101505378989204</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02271098868770267</v>
+        <v>0.02281669366362625</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>2657427</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2611486</v>
+        <v>2607551</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2705833</v>
+        <v>2712758</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7831213750944467</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7695830084677091</v>
+        <v>0.7684232845146662</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7973862274640582</v>
+        <v>0.7994270041197258</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2363</v>
@@ -7265,19 +7265,19 @@
         <v>2465642</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2402680</v>
+        <v>2410024</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2522497</v>
+        <v>2526744</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.696606646291941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6788183424279484</v>
+        <v>0.6808930133574687</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7126696291459282</v>
+        <v>0.7138696535513839</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4885</v>
@@ -7286,19 +7286,19 @@
         <v>5123068</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5048122</v>
+        <v>5049216</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5200761</v>
+        <v>5200552</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7389522644517964</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7281419777657401</v>
+        <v>0.7282998045914489</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7501587642874471</v>
+        <v>0.7501285993449301</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>418419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>380408</v>
+        <v>379675</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>458364</v>
+        <v>457859</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1233044185519142</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1121031875148739</v>
+        <v>0.1118871707742862</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1350759358635546</v>
+        <v>0.1349272260794136</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>456</v>
@@ -7336,19 +7336,19 @@
         <v>490779</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>448165</v>
+        <v>446670</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>535336</v>
+        <v>534641</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1386574275729249</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1266180977911976</v>
+        <v>0.1261957767509684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1512459873102825</v>
+        <v>0.1510496875349119</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>858</v>
@@ -7357,19 +7357,19 @@
         <v>909197</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>851594</v>
+        <v>848875</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>965605</v>
+        <v>965048</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1311427226595842</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1228340205247964</v>
+        <v>0.1224418321403996</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1392790480525321</v>
+        <v>0.1391987567611083</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>199952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>174363</v>
+        <v>174648</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>230181</v>
+        <v>229004</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05892407043672078</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05138328427060186</v>
+        <v>0.05146743620406734</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06783252510605946</v>
+        <v>0.06748567628918234</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>342</v>
@@ -7407,19 +7407,19 @@
         <v>387403</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>348531</v>
+        <v>346969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>425935</v>
+        <v>429241</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1094512790619278</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0984687985105529</v>
+        <v>0.09802745694182477</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1203374829668426</v>
+        <v>0.1212714572085159</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>536</v>
@@ -7428,19 +7428,19 @@
         <v>587355</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>541998</v>
+        <v>542739</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>640817</v>
+        <v>636441</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08472016202854238</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07817786373646346</v>
+        <v>0.07828477988011548</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09243161543181914</v>
+        <v>0.09180030729334626</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>68370</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>52362</v>
+        <v>51619</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>87269</v>
+        <v>84511</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02014811569588631</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01543067586511202</v>
+        <v>0.01521181882089172</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02571745382279573</v>
+        <v>0.02490478940318884</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>114</v>
@@ -7478,19 +7478,19 @@
         <v>129097</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>107102</v>
+        <v>106572</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>155475</v>
+        <v>154679</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03647325719106639</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03025910073851298</v>
+        <v>0.03010931602819686</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04392564812737566</v>
+        <v>0.04370070463382041</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>178</v>
@@ -7499,19 +7499,19 @@
         <v>197467</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>168135</v>
+        <v>172324</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>225417</v>
+        <v>227417</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02848273097975976</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02425180990171374</v>
+        <v>0.02485606393588969</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03251421038367571</v>
+        <v>0.03280273264851259</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>49211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36538</v>
+        <v>35892</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64713</v>
+        <v>65706</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01450202022103195</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01076739113397324</v>
+        <v>0.01057699565985826</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01907048593131636</v>
+        <v>0.01936306028096545</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -7549,19 +7549,19 @@
         <v>66583</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>51319</v>
+        <v>51421</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85097</v>
+        <v>86494</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01881138988213991</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0144988386285183</v>
+        <v>0.01452780701309946</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02404198310797539</v>
+        <v>0.02443669609374507</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>106</v>
@@ -7570,19 +7570,19 @@
         <v>115794</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>94397</v>
+        <v>94990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>136706</v>
+        <v>139694</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01670211988031731</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0136158698866761</v>
+        <v>0.01370140198775136</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01971844026412066</v>
+        <v>0.02014944758262849</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>527384</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>502670</v>
+        <v>504654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>548848</v>
+        <v>547276</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7658367284440765</v>
+        <v>0.7658367284440764</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7299482963705393</v>
+        <v>0.7328296644580222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7970056289960669</v>
+        <v>0.7947222608163949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>820</v>
@@ -7935,19 +7935,19 @@
         <v>516811</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>494622</v>
+        <v>497472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>534951</v>
+        <v>533435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7078851997380993</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6774918072388075</v>
+        <v>0.6813950771714044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7327308982082563</v>
+        <v>0.7306546456580384</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1349</v>
@@ -7956,19 +7956,19 @@
         <v>1044196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1011920</v>
+        <v>1015580</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1074756</v>
+        <v>1073751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7360145977242306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.713264173436425</v>
+        <v>0.7158439990198457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7575550599793663</v>
+        <v>0.7568466854974066</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>56114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44690</v>
+        <v>43997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70256</v>
+        <v>70638</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08148545293174062</v>
+        <v>0.0814854529317406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06489614641772296</v>
+        <v>0.06389027523604961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1020213127076396</v>
+        <v>0.1025763455234616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -8006,19 +8006,19 @@
         <v>69828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57702</v>
+        <v>58435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83886</v>
+        <v>86381</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09564450173229122</v>
+        <v>0.09564450173229119</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07903487826435526</v>
+        <v>0.08003916482558908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1148994096309935</v>
+        <v>0.1183181693473379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -8027,19 +8027,19 @@
         <v>125942</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108665</v>
+        <v>107375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>146783</v>
+        <v>144985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08877176640141692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07659391266328276</v>
+        <v>0.07568455231014373</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1034618627513509</v>
+        <v>0.1021946531274866</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>63365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50461</v>
+        <v>49592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80980</v>
+        <v>79893</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09201508803364307</v>
+        <v>0.09201508803364306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07327619294798791</v>
+        <v>0.07201433249804789</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1175948283233865</v>
+        <v>0.1160166378825837</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>182</v>
@@ -8077,19 +8077,19 @@
         <v>93142</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>81030</v>
+        <v>80387</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>109594</v>
+        <v>106949</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1275783193828869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1109875035387471</v>
+        <v>0.1101076099262538</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1501129736997207</v>
+        <v>0.1464901328439045</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>258</v>
@@ -8098,19 +8098,19 @@
         <v>156507</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>137029</v>
+        <v>136393</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>178383</v>
+        <v>177581</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1103160950613986</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0965866372189837</v>
+        <v>0.0961381418615823</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1257355433270442</v>
+        <v>0.1251698223189449</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>20374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13523</v>
+        <v>13692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30427</v>
+        <v>29681</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02958625958501178</v>
+        <v>0.02958625958501177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01963687859015275</v>
+        <v>0.01988306334933625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04418368808941058</v>
+        <v>0.04310092252705849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -8148,19 +8148,19 @@
         <v>30874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24273</v>
+        <v>23671</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40343</v>
+        <v>40274</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04228931346500195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03324763276508353</v>
+        <v>0.03242286664084542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05525896971786907</v>
+        <v>0.0551633203480144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -8169,19 +8169,19 @@
         <v>51249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41061</v>
+        <v>41014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63846</v>
+        <v>64216</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03612331118329407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02894216745420283</v>
+        <v>0.02890940980507265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04500238686453367</v>
+        <v>0.04526352206112819</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>21400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13116</v>
+        <v>13842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32412</v>
+        <v>32341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03107647100552821</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01904647802530758</v>
+        <v>0.02010094579136198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04706675386909416</v>
+        <v>0.046963530744512</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -8219,19 +8219,19 @@
         <v>19422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14109</v>
+        <v>14342</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26653</v>
+        <v>26418</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02660266568172079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01932557339975233</v>
+        <v>0.01964509106002422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03650665391801441</v>
+        <v>0.03618472877217274</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>67</v>
@@ -8240,19 +8240,19 @@
         <v>40822</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31435</v>
+        <v>30762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54904</v>
+        <v>53721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02877422962965979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02215750796247042</v>
+        <v>0.0216828939496519</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0386996020635614</v>
+        <v>0.03786614881616482</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>835705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>809179</v>
+        <v>808989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>860620</v>
+        <v>862395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7967313057600381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7714424970358137</v>
+        <v>0.7712613729619682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8204842995211346</v>
+        <v>0.8221764784112281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>985</v>
@@ -8365,19 +8365,19 @@
         <v>732674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>705270</v>
+        <v>703273</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>758551</v>
+        <v>759038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6850970588429099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.659472536136619</v>
+        <v>0.6576047546366065</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7092938600366147</v>
+        <v>0.7097483984753544</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1731</v>
@@ -8386,19 +8386,19 @@
         <v>1568379</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1529377</v>
+        <v>1527810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1608135</v>
+        <v>1604479</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7403732594610879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7219618828182943</v>
+        <v>0.7212222226728452</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7591402420914968</v>
+        <v>0.7574148007694759</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>92522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75507</v>
+        <v>74279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115447</v>
+        <v>113419</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08820673373645693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07198541786426826</v>
+        <v>0.07081539657460943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1100629627201462</v>
+        <v>0.1081297590036719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -8436,19 +8436,19 @@
         <v>119474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104705</v>
+        <v>103297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138467</v>
+        <v>136974</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1117154293559468</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09790568407520447</v>
+        <v>0.09658942325046367</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1294756319461418</v>
+        <v>0.1280796842346965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>279</v>
@@ -8457,19 +8457,19 @@
         <v>211995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187099</v>
+        <v>188535</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237208</v>
+        <v>242429</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1000749927406555</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08832235760293122</v>
+        <v>0.08900009910318241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1119772477801322</v>
+        <v>0.1144416827248356</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>81888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64770</v>
+        <v>65583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100529</v>
+        <v>100747</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07806935518203401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0617498722663855</v>
+        <v>0.06252401737050706</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09584047440278078</v>
+        <v>0.09604815191596064</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>212</v>
@@ -8507,19 +8507,19 @@
         <v>140619</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>120998</v>
+        <v>122196</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161269</v>
+        <v>163686</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1314879492120277</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1131410288436027</v>
+        <v>0.1142612568558526</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1507969170309906</v>
+        <v>0.1530565848199623</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>295</v>
@@ -8528,19 +8528,19 @@
         <v>222508</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>198244</v>
+        <v>198454</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>251628</v>
+        <v>251638</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1050374915622803</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09358375930035136</v>
+        <v>0.09368285956155971</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1187841557036121</v>
+        <v>0.1187887075033821</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>26575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18000</v>
+        <v>18101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38202</v>
+        <v>38397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02533610809948722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01716095052625105</v>
+        <v>0.01725728599226924</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03642012918499905</v>
+        <v>0.03660635320294483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -8578,19 +8578,19 @@
         <v>45022</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36127</v>
+        <v>35979</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55946</v>
+        <v>56143</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04209833637934395</v>
+        <v>0.04209833637934396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03378069580172155</v>
+        <v>0.03364227391114032</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05231275995143679</v>
+        <v>0.05249747675574958</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -8599,19 +8599,19 @@
         <v>71597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58289</v>
+        <v>58656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86562</v>
+        <v>86133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03379844348094974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02751592474964875</v>
+        <v>0.02768951542009357</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04086248374626325</v>
+        <v>0.04066028977420968</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>12227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6878</v>
+        <v>6286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20661</v>
+        <v>20119</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01165649722198382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006557065289911098</v>
+        <v>0.005993177647636564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01969703152879832</v>
+        <v>0.01918036729379007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -8649,19 +8649,19 @@
         <v>31657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23154</v>
+        <v>22702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41329</v>
+        <v>42240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0296012262097716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02165046967261822</v>
+        <v>0.02122795474246158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03864550388743354</v>
+        <v>0.03949704465551646</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -8670,19 +8670,19 @@
         <v>43884</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34237</v>
+        <v>34092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57005</v>
+        <v>56235</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02071581275502645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01616180493602441</v>
+        <v>0.0160934153272709</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02691006669712002</v>
+        <v>0.02654636163051242</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>605547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>578621</v>
+        <v>577575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>632534</v>
+        <v>630435</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7540369934152035</v>
+        <v>0.7540369934152036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7205081416517524</v>
+        <v>0.7192057670623733</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7876421869642923</v>
+        <v>0.785027923872977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>708</v>
@@ -8795,19 +8795,19 @@
         <v>567429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>541840</v>
+        <v>544339</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>591091</v>
+        <v>593166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6989915862212009</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6674704258321476</v>
+        <v>0.6705480802482841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7281404829494327</v>
+        <v>0.7306960757554719</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1204</v>
@@ -8816,19 +8816,19 @@
         <v>1172976</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1135892</v>
+        <v>1135048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1208627</v>
+        <v>1207529</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7263658519080893</v>
+        <v>0.7263658519080896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7034015644069379</v>
+        <v>0.7028794346978597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7484428249223892</v>
+        <v>0.7477629418630746</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>82938</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66427</v>
+        <v>65162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102596</v>
+        <v>103916</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.103275833847017</v>
+        <v>0.1032758338470171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08271570736636739</v>
+        <v>0.0811402922672865</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1277541071489803</v>
+        <v>0.129397873563735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -8866,19 +8866,19 @@
         <v>81158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67304</v>
+        <v>68104</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96108</v>
+        <v>98015</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09997524746824446</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08290836847626287</v>
+        <v>0.08389415128637938</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1183917542602392</v>
+        <v>0.1207409409434227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -8887,19 +8887,19 @@
         <v>164096</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>142184</v>
+        <v>141708</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189995</v>
+        <v>190055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1016166401485931</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08804736196550432</v>
+        <v>0.08775306305444543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1176545067886803</v>
+        <v>0.1176914812986998</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>67478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51978</v>
+        <v>52676</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87034</v>
+        <v>87161</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08402521700579693</v>
+        <v>0.08402521700579692</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06472361287189117</v>
+        <v>0.06559243929647107</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1083763388054781</v>
+        <v>0.1085344855558725</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>146</v>
@@ -8937,19 +8937,19 @@
         <v>107647</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>91828</v>
+        <v>90176</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128540</v>
+        <v>126264</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1326056314537748</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1131184699337174</v>
+        <v>0.1110845719097643</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1583435764941543</v>
+        <v>0.1555392660105098</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -8958,19 +8958,19 @@
         <v>175125</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>152039</v>
+        <v>150094</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202598</v>
+        <v>199028</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1084464283509409</v>
+        <v>0.108446428350941</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09415031296573531</v>
+        <v>0.0929456421210319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1254588103939711</v>
+        <v>0.1232481680805686</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>31379</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20859</v>
+        <v>20284</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46838</v>
+        <v>46595</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03907376014582532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02597360637735655</v>
+        <v>0.02525746199068796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05832289714378932</v>
+        <v>0.05802031908190455</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -9008,19 +9008,19 @@
         <v>29428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21255</v>
+        <v>22040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39107</v>
+        <v>40225</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03625126157982387</v>
+        <v>0.03625126157982388</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02618258819889713</v>
+        <v>0.02715016207319963</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04817464318578927</v>
+        <v>0.04955123044655298</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -9029,19 +9029,19 @@
         <v>60807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48071</v>
+        <v>47552</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77133</v>
+        <v>79739</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03765489958679284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02976825820749934</v>
+        <v>0.02944645199489484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04776454953286392</v>
+        <v>0.0493784471139208</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>15731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9217</v>
+        <v>9294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26521</v>
+        <v>28206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01958819558615715</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01147710667991283</v>
+        <v>0.01157288388489958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03302494144484408</v>
+        <v>0.03512308177121572</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -9079,19 +9079,19 @@
         <v>26120</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18948</v>
+        <v>19251</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35876</v>
+        <v>36954</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03217627327695593</v>
+        <v>0.03217627327695592</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02334099074290597</v>
+        <v>0.02371452933800365</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04419372701227486</v>
+        <v>0.04552238850575526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -9100,19 +9100,19 @@
         <v>41851</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31119</v>
+        <v>31740</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55590</v>
+        <v>55372</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02591618000558371</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01927061816192763</v>
+        <v>0.01965488857631309</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03442384193394978</v>
+        <v>0.03428916931795337</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>780299</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>754739</v>
+        <v>753646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>803266</v>
+        <v>803856</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7894074863482438</v>
+        <v>0.7894074863482435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7635499747308643</v>
+        <v>0.7624442691883746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8126434803448378</v>
+        <v>0.8132394887885487</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1015</v>
@@ -9225,19 +9225,19 @@
         <v>760382</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>731996</v>
+        <v>733331</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>785855</v>
+        <v>786963</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.679494422318461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6541281421319165</v>
+        <v>0.655321156060238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7022571726924572</v>
+        <v>0.7032474260963392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1777</v>
@@ -9246,19 +9246,19 @@
         <v>1540681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1502047</v>
+        <v>1502535</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1576006</v>
+        <v>1578724</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7310458484835676</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.712714170562994</v>
+        <v>0.7129457921591348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7478076612581336</v>
+        <v>0.7490972337643712</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>73359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57456</v>
+        <v>59290</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89733</v>
+        <v>90329</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07421576460656169</v>
+        <v>0.07421576460656171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05812671564961832</v>
+        <v>0.05998244186364207</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0907801173934045</v>
+        <v>0.09138375939916465</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>196</v>
@@ -9296,19 +9296,19 @@
         <v>129054</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>113013</v>
+        <v>111820</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149791</v>
+        <v>145944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1153259759425506</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1009909783951929</v>
+        <v>0.09992460770953747</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1338563008038935</v>
+        <v>0.1304186938601132</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>285</v>
@@ -9317,19 +9317,19 @@
         <v>202414</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>180087</v>
+        <v>179931</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>226363</v>
+        <v>229114</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09604446429490049</v>
+        <v>0.0960444642949005</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08545065702570577</v>
+        <v>0.08537653587648415</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1074083721022064</v>
+        <v>0.1087137751033576</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>78038</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>62633</v>
+        <v>61887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>97273</v>
+        <v>97692</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07894925027280425</v>
+        <v>0.07894925027280424</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06336435955996547</v>
+        <v>0.06260957670977801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09840852248879371</v>
+        <v>0.09883239753656248</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>202</v>
@@ -9367,19 +9367,19 @@
         <v>133978</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116565</v>
+        <v>116561</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>153642</v>
+        <v>154083</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1197260095005207</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1041650407289796</v>
+        <v>0.1041615085061558</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1372976101411906</v>
+        <v>0.137691572535966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>287</v>
@@ -9388,19 +9388,19 @@
         <v>212017</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>187175</v>
+        <v>188124</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>238419</v>
+        <v>238303</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1006008935633437</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0888138565612117</v>
+        <v>0.08926395687199114</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.113128671590676</v>
+        <v>0.1130738605721607</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>29484</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20550</v>
+        <v>20897</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40291</v>
+        <v>40229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02982793561428951</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02079036215172672</v>
+        <v>0.02114050579663853</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04076144365329559</v>
+        <v>0.04069812855644184</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -9438,19 +9438,19 @@
         <v>56429</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45117</v>
+        <v>45269</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70066</v>
+        <v>70402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0504263592678313</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04031725311591675</v>
+        <v>0.04045346257023448</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06261279759777055</v>
+        <v>0.06291251408183206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -9459,19 +9459,19 @@
         <v>85913</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71169</v>
+        <v>70820</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101959</v>
+        <v>101808</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04076528644208045</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03376930086207328</v>
+        <v>0.0336037649122302</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04837897966403246</v>
+        <v>0.04830745022707647</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>27281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19199</v>
+        <v>18413</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40705</v>
+        <v>39386</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02759956315810085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01942349439414939</v>
+        <v>0.01862751127796672</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04118067322062238</v>
+        <v>0.03984569794543705</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -9509,19 +9509,19 @@
         <v>39197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29409</v>
+        <v>30509</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48652</v>
+        <v>50964</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03502723297063642</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02628041196200348</v>
+        <v>0.02726314460949827</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04347625494033421</v>
+        <v>0.0455425971147676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -9530,19 +9530,19 @@
         <v>66478</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54596</v>
+        <v>54230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>81683</v>
+        <v>81470</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03154350721610769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02590547162100737</v>
+        <v>0.02573200562103965</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03875828374800762</v>
+        <v>0.0386569635596318</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>2748935</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2700684</v>
+        <v>2694535</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2801767</v>
+        <v>2798583</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7789360205823233</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7652637118695249</v>
+        <v>0.7635213992792105</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7939066078978609</v>
+        <v>0.7930042945790613</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3528</v>
@@ -9655,19 +9655,19 @@
         <v>2577297</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2525084</v>
+        <v>2525302</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2630648</v>
+        <v>2625904</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6908999695451996</v>
+        <v>0.6908999695451994</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6769030265590578</v>
+        <v>0.6769616007768046</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7052016467748845</v>
+        <v>0.7039300249803899</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6061</v>
@@ -9676,19 +9676,19 @@
         <v>5326233</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5254586</v>
+        <v>5253185</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5392932</v>
+        <v>5398409</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7336976483966722</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7238281452055941</v>
+        <v>0.7236352144051051</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7428856253313142</v>
+        <v>0.743640068609786</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>304933</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>271407</v>
+        <v>270279</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>340957</v>
+        <v>344233</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08640557007416545</v>
+        <v>0.08640557007416544</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07690563135420436</v>
+        <v>0.07658595701385661</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0966133046531529</v>
+        <v>0.0975415168918814</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>623</v>
@@ -9726,19 +9726,19 @@
         <v>399514</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>368320</v>
+        <v>367914</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>433448</v>
+        <v>432688</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1070983919570404</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09873614879383834</v>
+        <v>0.09862713033151879</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1161950846331161</v>
+        <v>0.1159912172876231</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>946</v>
@@ -9747,19 +9747,19 @@
         <v>704447</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>660800</v>
+        <v>655935</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>752495</v>
+        <v>750818</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09703882278008401</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09102630919862946</v>
+        <v>0.09035611331949676</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1036575306914883</v>
+        <v>0.1034264238922554</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>290770</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>259362</v>
+        <v>260436</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>326644</v>
+        <v>326514</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08239236880540977</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07349258769508604</v>
+        <v>0.07379690332254582</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09255772824029365</v>
+        <v>0.09252069487606705</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>742</v>
@@ -9797,19 +9797,19 @@
         <v>475387</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>438872</v>
+        <v>439428</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>512393</v>
+        <v>511220</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1274376252492113</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1176491747411059</v>
+        <v>0.1177981516700164</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1373580659840724</v>
+        <v>0.1370435115832241</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1049</v>
@@ -9818,19 +9818,19 @@
         <v>766157</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>718071</v>
+        <v>720813</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>811644</v>
+        <v>819455</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1055394097300814</v>
+        <v>0.1055394097300815</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09891554238291032</v>
+        <v>0.09929326261827826</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1118053989744223</v>
+        <v>0.1128812905673667</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>107813</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>86814</v>
+        <v>89032</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>129180</v>
+        <v>129865</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03054967695076543</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02459959187496749</v>
+        <v>0.02522792244600475</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03660423061349993</v>
+        <v>0.03679834136958197</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>267</v>
@@ -9868,19 +9868,19 @@
         <v>161754</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>143246</v>
+        <v>141903</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>181612</v>
+        <v>183563</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.04336156390460516</v>
+        <v>0.04336156390460515</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0384001974043844</v>
+        <v>0.03804018516089794</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0486850500354639</v>
+        <v>0.04920813924552307</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>390</v>
@@ -9889,19 +9889,19 @@
         <v>269566</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>241479</v>
+        <v>241318</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>301227</v>
+        <v>299273</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03713321748433482</v>
+        <v>0.03713321748433483</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03326416923230095</v>
+        <v>0.03324199097543021</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04149447294011103</v>
+        <v>0.04122542342417364</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>76639</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60989</v>
+        <v>59266</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96042</v>
+        <v>94505</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02171636358733612</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01728166422382903</v>
+        <v>0.016793450437485</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02721428257335107</v>
+        <v>0.02677874670152538</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>195</v>
@@ -9939,19 +9939,19 @@
         <v>116396</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>99981</v>
+        <v>101032</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>134425</v>
+        <v>133557</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.0312024493439436</v>
+        <v>0.03120244934394359</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02680208078665286</v>
+        <v>0.02708388842506413</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03603551825633106</v>
+        <v>0.03580285149593874</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>281</v>
@@ -9960,19 +9960,19 @@
         <v>193035</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>168886</v>
+        <v>170657</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>219301</v>
+        <v>219580</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02659090160882745</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02326434509813174</v>
+        <v>0.02350825353621099</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0302090444044552</v>
+        <v>0.03024752657014275</v>
       </c>
     </row>
     <row r="33">
